--- a/testData/courseName.xlsx
+++ b/testData/courseName.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="78">
   <si>
     <t>English (1,624)</t>
   </si>
@@ -487,7 +487,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>11</v>

--- a/testData/courseName.xlsx
+++ b/testData/courseName.xlsx
@@ -13,12 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+  <si>
+    <t>Meta Front-End Developer</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3 - 6 Months</t>
+  </si>
   <si>
     <t>Introduction to Web Development</t>
   </si>
   <si>
-    <t>4.7</t>
+    <t>1 - 3 Months</t>
   </si>
   <si>
     <t>English (1,626)</t>
@@ -27,172 +36,97 @@
     <t>Beginner(729)</t>
   </si>
   <si>
-    <t/>
+    <t>729</t>
   </si>
   <si>
     <t>Intermediate(683)</t>
   </si>
   <si>
+    <t>683</t>
+  </si>
+  <si>
     <t>Advanced(67)</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>Mixed(125)</t>
   </si>
   <si>
+    <t>125</t>
+  </si>
+  <si>
     <t>Portuguese (Brazil) (950)</t>
   </si>
   <si>
-    <t>IBM Full Stack Software Developer</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>3 - 6 Months</t>
-  </si>
-  <si>
-    <t>Meta Front-End Developer</t>
-  </si>
-  <si>
-    <t>Chinese (China)</t>
-  </si>
-  <si>
-    <t>Beginner</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
-    <t>348</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>683</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Arabic</t>
+    <t>Beginner(444)</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>Intermediate(350)</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Advanced(35)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Mixed(121)</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Arabic (975)</t>
+  </si>
+  <si>
+    <t>Beginner(462)</t>
   </si>
   <si>
     <t>462</t>
   </si>
   <si>
+    <t>Intermediate(357)</t>
+  </si>
+  <si>
     <t>357</t>
   </si>
   <si>
+    <t>Advanced(34)</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
+    <t>Mixed(122)</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>French</t>
+    <t>French (959)</t>
+  </si>
+  <si>
+    <t>Beginner(447)</t>
   </si>
   <si>
     <t>447</t>
   </si>
   <si>
+    <t>Intermediate(356)</t>
+  </si>
+  <si>
     <t>356</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Chinese (Traditional)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>English (1,625)</t>
-  </si>
-  <si>
-    <t>Mixed(124)</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>Portuguese (Brazil) (949)</t>
-  </si>
-  <si>
-    <t>Beginner(444)</t>
-  </si>
-  <si>
-    <t>444</t>
-  </si>
-  <si>
-    <t>Intermediate(350)</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>Advanced(35)</t>
-  </si>
-  <si>
-    <t>Mixed(120)</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Arabic (974)</t>
-  </si>
-  <si>
-    <t>Beginner(462)</t>
-  </si>
-  <si>
-    <t>Intermediate(357)</t>
-  </si>
-  <si>
-    <t>Advanced(34)</t>
-  </si>
-  <si>
-    <t>Mixed(121)</t>
-  </si>
-  <si>
-    <t>French (958)</t>
-  </si>
-  <si>
-    <t>Beginner(447)</t>
-  </si>
-  <si>
-    <t>Intermediate(356)</t>
-  </si>
-  <si>
-    <t>Spanish (1,062)</t>
+    <t>Spanish (1,063)</t>
   </si>
   <si>
     <t>Beginner(506)</t>
@@ -211,51 +145,6 @@
   </si>
   <si>
     <t>42</t>
-  </si>
-  <si>
-    <t>Mixed(131)</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>974</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>958</t>
-  </si>
-  <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>511</t>
-  </si>
-  <si>
-    <t>Arabic (975)</t>
-  </si>
-  <si>
-    <t>Mixed(122)</t>
-  </si>
-  <si>
-    <t>French (959)</t>
-  </si>
-  <si>
-    <t>Spanish (1,063)</t>
   </si>
   <si>
     <t>Mixed(132)</t>
@@ -314,24 +203,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -349,104 +238,104 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="0">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>31</v>
@@ -457,34 +346,34 @@
         <v>32</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="0">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -492,34 +381,34 @@
         <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="0">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="0">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s" s="0">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/testData/courseName.xlsx
+++ b/testData/courseName.xlsx
@@ -7,17 +7,207 @@
   </bookViews>
   <sheets>
     <sheet name="CourseCount" r:id="rId3" sheetId="1"/>
+    <sheet name="courseDetails" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="65">
   <si>
     <t>Chinese (China)</t>
   </si>
   <si>
     <t>Beginner</t>
+  </si>
+  <si>
+    <t>Meta Front-End Developer</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>3 - 6 Months</t>
+  </si>
+  <si>
+    <t>Introduction to Web Development</t>
+  </si>
+  <si>
+    <t>1 - 3 Months</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional)</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>English (1,633)</t>
+  </si>
+  <si>
+    <t>Beginner (734)</t>
+  </si>
+  <si>
+    <t>Intermediate (685)</t>
+  </si>
+  <si>
+    <t>Advanced (67)</t>
+  </si>
+  <si>
+    <t>Mixed (125)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (950)</t>
+  </si>
+  <si>
+    <t>Beginner (444)</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>Intermediate (350)</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Advanced (35)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Mixed (121)</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Arabic (975)</t>
+  </si>
+  <si>
+    <t>Beginner (462)</t>
+  </si>
+  <si>
+    <t>Intermediate (357)</t>
+  </si>
+  <si>
+    <t>Advanced (34)</t>
+  </si>
+  <si>
+    <t>Mixed (122)</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>French (959)</t>
+  </si>
+  <si>
+    <t>Beginner (447)</t>
+  </si>
+  <si>
+    <t>Intermediate (356)</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>Spanish (1,063)</t>
+  </si>
+  <si>
+    <t>Beginner (506)</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>Intermediate (381)</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>Advanced (42)</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Mixed (132)</t>
+  </si>
+  <si>
+    <t>132</t>
   </si>
 </sst>
 </file>
@@ -62,7 +252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -70,10 +260,212 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
